--- a/medicine/Mort/Isla_Blanca/Isla_Blanca.xlsx
+++ b/medicine/Mort/Isla_Blanca/Isla_Blanca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isla Blanca est un film québécois dramatique écrit et réalisé par Jeanne Leblanc sorti en 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une fugue de huit ans, Mathilde revient dans sa ville natale. Le retour ne sera pas facile, mais elle devra recoller les pots cassés avant de pouvoir faire ses adieux à sa mère mourante.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Jeanne Leblanc
 Scénariste : Jeanne Leblanc
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charlotte Aubin : Mathilde
 Théodore Pellerin : Émile, le frère
